--- a/stock_history.xlsx
+++ b/stock_history.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:B1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,6 +422,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>"AVGAD"</t>
+        </is>
+      </c>
       <c r="B1">
         <f>STOCKHISTORY(A1, TODAY(), TODAY())</f>
         <v/>

--- a/stock_history.xlsx
+++ b/stock_history.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:B1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,8 +422,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>"AVGAD"</t>
+        </is>
+      </c>
       <c r="B1">
-        <f>STOCKHISTORY(A1, TODAY(), TODAY())</f>
+        <f>STOCKHISTORY(A1, TODAY(), TODAY(),0,1,0)</f>
         <v/>
       </c>
     </row>
